--- a/data/others/ideas/S5a_All_Analytical_Approaches.xlsx
+++ b/data/others/ideas/S5a_All_Analytical_Approaches.xlsx
@@ -1672,7 +1672,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1683,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1741,10 +1747,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1755,14 +1764,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1777,7 +1789,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -2090,30 +2102,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="42.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="42.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -2123,13 +2135,13 @@
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2138,7 +2150,7 @@
       <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2168,16 +2180,16 @@
       <c r="Q1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>76</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="9" t="s">
         <v>79</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -2197,13 +2209,13 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2212,7 +2224,7 @@
       <c r="G2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>89</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -2242,16 +2254,16 @@
       <c r="Q2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>99</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="9" t="s">
         <v>102</v>
       </c>
       <c r="V2" s="1" t="s">
@@ -2271,13 +2283,13 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
         <v>41800.883263888885</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <v>41800.890914351854</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2286,7 +2298,7 @@
       <c r="G3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="10">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2316,16 +2328,16 @@
       <c r="Q3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="10">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="9" t="s">
         <v>120</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -2338,20 +2350,20 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>41800.83969907407</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>41800.9765625</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2360,7 +2372,7 @@
       <c r="G4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="10">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -2390,16 +2402,16 @@
       <c r="Q4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="10">
         <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="9" t="s">
         <v>138</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -2412,20 +2424,20 @@
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>0</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>41800.794895833336</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>41801.08020833333</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2434,7 +2446,7 @@
       <c r="G5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2464,16 +2476,16 @@
       <c r="Q5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="10">
         <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="9" t="s">
         <v>154</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -2486,20 +2498,20 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>41801.374768518515</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="11">
         <v>41801.39009259259</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2508,7 +2520,7 @@
       <c r="G6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2538,16 +2550,16 @@
       <c r="Q6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="10">
         <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="9" t="s">
         <v>171</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -2556,20 +2568,20 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>41801.452881944446</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>41801.615381944444</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2578,7 +2590,7 @@
       <c r="G7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2608,16 +2620,16 @@
       <c r="Q7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="10">
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="9" t="s">
         <v>185</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -2630,20 +2642,20 @@
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>41801.80887731481</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="11">
         <v>41801.91976851852</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2652,7 +2664,7 @@
       <c r="G8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2680,16 +2692,16 @@
       <c r="Q8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="10">
         <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="9" t="s">
         <v>201</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -2700,20 +2712,20 @@
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <v>41802.57586805556</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <v>41802.57938657407</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2722,7 +2734,7 @@
       <c r="G9" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="10">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2752,16 +2764,16 @@
       <c r="Q9" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="10">
         <v>1</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="9" t="s">
         <v>217</v>
       </c>
       <c r="V9" s="1" t="s">
@@ -2774,20 +2786,20 @@
         <v>220</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>41800.98324074074</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="11">
         <v>41802.9987962963</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2796,7 +2808,7 @@
       <c r="G10" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="10">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2824,16 +2836,16 @@
         <v>230</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="8">
+      <c r="R10" s="10">
         <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="9" t="s">
         <v>233</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -2846,20 +2858,20 @@
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>41800.596354166664</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="11">
         <v>41803.48449074074</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2868,7 +2880,7 @@
       <c r="G11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2898,16 +2910,16 @@
       <c r="Q11" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="10">
         <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="9" t="s">
         <v>249</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -2920,20 +2932,20 @@
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <v>41801.956608796296</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="11">
         <v>41803.841527777775</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2942,7 +2954,7 @@
       <c r="G12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2972,16 +2984,16 @@
       <c r="Q12" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="10">
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="U12" s="9" t="s">
         <v>265</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -3001,13 +3013,13 @@
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>0</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>41800.589895833335</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>41803.938159722224</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -3016,7 +3028,7 @@
       <c r="G13" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="10">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -3046,16 +3058,16 @@
       <c r="Q13" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="10">
         <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" s="9" t="s">
         <v>281</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -3068,20 +3080,20 @@
         <v>284</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>0</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>41804.00759259259</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>41804.22692129629</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -3090,7 +3102,7 @@
       <c r="G14" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="10">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -3120,16 +3132,16 @@
       <c r="Q14" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="10">
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="U14" s="9" t="s">
         <v>297</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -3142,20 +3154,20 @@
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>0</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <v>41801.89685185185</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <v>41804.24811342593</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -3164,7 +3176,7 @@
       <c r="G15" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="10">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -3194,16 +3206,16 @@
       <c r="Q15" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="10">
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="9" t="s">
         <v>314</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -3223,13 +3235,13 @@
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>0</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>41800.58974537037</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="11">
         <v>41804.63805555556</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -3238,7 +3250,7 @@
       <c r="G16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="10">
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -3268,16 +3280,16 @@
       <c r="Q16" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="10">
         <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="U16" s="7" t="s">
+      <c r="U16" s="9" t="s">
         <v>329</v>
       </c>
       <c r="V16" s="1" t="s">
@@ -3295,13 +3307,13 @@
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <v>0</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>41800.59594907407</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="11">
         <v>41804.66966435185</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -3310,7 +3322,7 @@
       <c r="G17" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="10">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -3340,16 +3352,16 @@
       <c r="Q17" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="10">
         <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="9" t="s">
         <v>344</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -3360,20 +3372,20 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <v>0</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="11">
         <v>41804.654965277776</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="11">
         <v>41804.72699074074</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -3382,7 +3394,7 @@
       <c r="G18" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="10">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -3412,16 +3424,16 @@
       <c r="Q18" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="10">
         <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="U18" s="9" t="s">
         <v>360</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -3432,20 +3444,20 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="11">
         <v>41804.57173611111</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="11">
         <v>41804.954421296294</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -3454,7 +3466,7 @@
       <c r="G19" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="10">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -3484,16 +3496,16 @@
       <c r="Q19" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="10">
         <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="U19" s="7" t="s">
+      <c r="U19" s="9" t="s">
         <v>375</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -3506,20 +3518,20 @@
         <v>378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="10">
         <v>0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="11">
         <v>41801.95568287037</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="11">
         <v>41804.97665509259</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3528,7 +3540,7 @@
       <c r="G20" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="10">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -3558,16 +3570,16 @@
       <c r="Q20" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="10">
         <v>1</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="9" t="s">
         <v>391</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -3578,20 +3590,20 @@
         <v>393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="10">
         <v>0</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="11">
         <v>41800.59400462963</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="11">
         <v>41805.091469907406</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3600,7 +3612,7 @@
       <c r="G21" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="10">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3628,16 +3640,16 @@
       <c r="Q21" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="10">
         <v>1</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="12">
         <v>0.177</v>
       </c>
-      <c r="U21" s="10">
+      <c r="U21" s="12">
         <v>0.237</v>
       </c>
       <c r="V21" s="1" t="s">
@@ -3655,13 +3667,13 @@
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="10">
         <v>0</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="11">
         <v>41805.1034375</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="11">
         <v>41805.23516203704</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -3670,7 +3682,7 @@
       <c r="G22" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="10">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -3700,16 +3712,16 @@
       <c r="Q22" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="10">
         <v>1</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="T22" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="U22" s="7" t="s">
+      <c r="U22" s="9" t="s">
         <v>418</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -3727,13 +3739,13 @@
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="10">
         <v>0</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="11">
         <v>41801.515810185185</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="11">
         <v>41805.54267361111</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -3742,7 +3754,7 @@
       <c r="G23" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="10">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -3772,16 +3784,16 @@
       <c r="Q23" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="10">
         <v>1</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="U23" s="7" t="s">
+      <c r="U23" s="9" t="s">
         <v>433</v>
       </c>
       <c r="V23" s="1" t="s">
@@ -3792,20 +3804,20 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="10">
         <v>0</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <v>41804.69280092593</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="11">
         <v>41805.66119212963</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3814,7 +3826,7 @@
       <c r="G24" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="10">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -3844,16 +3856,16 @@
       <c r="Q24" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="10">
         <v>1</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="U24" s="9" t="s">
         <v>449</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -3866,20 +3878,20 @@
         <v>451</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="10">
         <v>0</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="11">
         <v>41801.43255787037</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="11">
         <v>41805.9200462963</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3888,7 +3900,7 @@
       <c r="G25" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="10">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -3918,16 +3930,16 @@
       <c r="Q25" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="10">
         <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="T25" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="U25" s="9" t="s">
         <v>464</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -3938,20 +3950,20 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="10">
         <v>0</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="11">
         <v>41800.59662037037</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="11">
         <v>41806.09465277778</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3960,7 +3972,7 @@
       <c r="G26" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="10">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -3990,16 +4002,16 @@
       <c r="Q26" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="10">
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T26" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="U26" s="7" t="s">
+      <c r="U26" s="9" t="s">
         <v>481</v>
       </c>
       <c r="V26" s="1" t="s">
@@ -4019,13 +4031,13 @@
       <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="10">
         <v>0</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="11">
         <v>41805.87263888889</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="11">
         <v>41806.13487268519</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -4034,7 +4046,7 @@
       <c r="G27" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="10">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -4064,16 +4076,16 @@
       <c r="Q27" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="10">
         <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="U27" s="7" t="s">
+      <c r="U27" s="9" t="s">
         <v>496</v>
       </c>
       <c r="V27" s="1" t="s">
@@ -4086,20 +4098,20 @@
         <v>499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>500</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="10">
         <v>0</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="11">
         <v>41801.15138888889</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="11">
         <v>41806.172326388885</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -4108,7 +4120,7 @@
       <c r="G28" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="10">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -4138,16 +4150,16 @@
       <c r="Q28" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="10">
         <v>1</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="T28" s="7" t="s">
+      <c r="T28" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" s="9" t="s">
         <v>514</v>
       </c>
       <c r="V28" s="1" t="s">
@@ -4165,13 +4177,13 @@
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="10">
         <v>0</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="11">
         <v>41806.29019675926</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="11">
         <v>41806.29900462963</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -4180,7 +4192,7 @@
       <c r="G29" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="10">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -4210,16 +4222,16 @@
       <c r="Q29" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="10">
         <v>1</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="T29" s="7" t="s">
+      <c r="T29" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="U29" s="7" t="s">
+      <c r="U29" s="9" t="s">
         <v>531</v>
       </c>
       <c r="V29" s="1" t="s">
@@ -4232,20 +4244,20 @@
         <v>534</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>535</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="10">
         <v>0</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="11">
         <v>41805.93104166666</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="11">
         <v>41806.34679398148</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4254,7 +4266,7 @@
       <c r="G30" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="10">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -4284,16 +4296,16 @@
       <c r="Q30" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30" s="10">
         <v>1</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="T30" s="7" t="s">
+      <c r="T30" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="U30" s="7" t="s">
+      <c r="U30" s="9" t="s">
         <v>546</v>
       </c>
       <c r="V30" s="1" t="s">
@@ -4322,9 +4334,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="10.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -4332,14 +4344,14 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4348,7 +4360,7 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4357,7 +4369,7 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4366,7 +4378,7 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4375,7 +4387,7 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4384,7 +4396,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4393,7 +4405,7 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4402,7 +4414,7 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4411,7 +4423,7 @@
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4420,7 +4432,7 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4429,7 +4441,7 @@
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4438,7 +4450,7 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4447,7 +4459,7 @@
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4456,7 +4468,7 @@
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4465,7 +4477,7 @@
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4474,7 +4486,7 @@
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4483,7 +4495,7 @@
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4492,7 +4504,7 @@
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4501,7 +4513,7 @@
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4510,7 +4522,7 @@
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4519,7 +4531,7 @@
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4528,7 +4540,7 @@
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4537,7 +4549,7 @@
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4546,7 +4558,7 @@
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4555,7 +4567,7 @@
       <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4564,7 +4576,7 @@
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4573,7 +4585,7 @@
       <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4582,7 +4594,7 @@
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4591,7 +4603,7 @@
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>58</v>
       </c>
     </row>
